--- a/ws_sql/테이블명세서/stu_sub.xlsx
+++ b/ws_sql/테이블명세서/stu_sub.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GGG\AppData\Roaming\SQL Developer\BNK-KDT\ws_sql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GGG\Documents\GitHub\BNK-KDT\ws_sql\테이블명세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CCBB8D-F8A7-4197-9EFE-E6D1B6745FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C970AE17-86A9-417F-A416-F8BD1753D4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18465" yWindow="105" windowWidth="10110" windowHeight="15135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1155" yWindow="30" windowWidth="27585" windowHeight="15135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -595,7 +595,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
